--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value805.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value805.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.968558596273106</v>
+        <v>1.170247316360474</v>
       </c>
       <c r="B1">
-        <v>3.040242940252754</v>
+        <v>1.665533781051636</v>
       </c>
       <c r="C1">
-        <v>2.325943249168268</v>
+        <v>4.56535816192627</v>
       </c>
       <c r="D1">
-        <v>2.177497221065976</v>
+        <v>0.6432885527610779</v>
       </c>
       <c r="E1">
-        <v>1.912195171724605</v>
+        <v>0.7118012309074402</v>
       </c>
     </row>
   </sheetData>
